--- a/biology/Zoologie/Cigogne_de_Storm/Cigogne_de_Storm.xlsx
+++ b/biology/Zoologie/Cigogne_de_Storm/Cigogne_de_Storm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ciconia stormi
 La Cigogne de Storm (Ciconia stormi) est une espèce d'oiseaux d'Asie de la famille des Ciconiidae. Son nom commémore Hugo Storm, le capitaine allemand du vapeur Lübeck, qui durant ses années de service (de 1887 jusqu'à environ 1895), récolte des spécimens d'histoire naturelle en Asie.
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Cigogne de Storm est grande d'approximativement de 90 cm avec un plumage blanc et noir, un bec rouge, la face dénudée et orange, des pattes rouges et des orbites oculaires jaunes. Le mâle est d'apparence identique à la femelle. Le cigogneau possède un duvet et une peau déplumée.
 </t>
@@ -545,7 +559,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le peu de spécimens connus vit dans les forêts préservées et humides de Sumatra, des Îles Mentawai, de Bornéo et de la Péninsule Malaise. Un de ses derniers espaces préservés dans leur intégralité est le sud-est de Sumatra, avec des populations confinées sur Kalimantan et Brunei. La péninsule malaise compte une très petite population d'individus, dispersés de plus. 
 La population mondiale est estimée à moins de 500 individus.
@@ -577,7 +593,9 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La cigogne de Storm est un oiseau solitaire. Son régime alimentaire est composé essentiellement de poissons. La femelle pond en général deux œufs dans un nid de branchages dans la canopée.
 </t>
